--- a/script_creater/template/4G_FDD/CIQ-template.xlsx
+++ b/script_creater/template/4G_FDD/CIQ-template.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\ephucle\tool_script\python\pythonlab\script_creater\template\4G_FDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D97FD1-04AC-45A9-AB7E-058C65CB1AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D13D924-9AB2-44A0-9E46-62CB1C3A9422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CIQ-template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -935,7 +945,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="96">
   <si>
     <t>Parameter</t>
   </si>
@@ -1202,13 +1212,34 @@
   </si>
   <si>
     <t>10.202.17.193</t>
+  </si>
+  <si>
+    <t>SubNetwork=ONRM_ROOT_MO_R,SubNetwork=LTE,MeContext=eHIL2861B</t>
+  </si>
+  <si>
+    <t>eHIL2861</t>
+  </si>
+  <si>
+    <t>10.178.147.121</t>
+  </si>
+  <si>
+    <t>10.178.147.126</t>
+  </si>
+  <si>
+    <t>10.188.147.121</t>
+  </si>
+  <si>
+    <t>10.188.147.126</t>
+  </si>
+  <si>
+    <t>SubNetwork=ONRM_ROOT_MO_R,SubNetwork=LTE,MeContext=eHIL2861</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1216,13 +1247,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1237,9 +1286,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1556,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI2000"/>
+  <dimension ref="A1:BJ2000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AW4" sqref="AW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,7 +1623,7 @@
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1808,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1937,7 +1993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
@@ -1971,9 +2027,6 @@
       <c r="K3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M3" s="1" t="s">
         <v>70</v>
       </c>
@@ -2061,59 +2114,59 @@
       <c r="AO3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>4</v>
+      <c r="AP3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>12954</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>39</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>4</v>
+      <c r="AY3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>5</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>54</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BD3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>4</v>
+      <c r="BD3" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>5</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>69</v>
       </c>
       <c r="BH3" s="1" t="s">
         <v>4</v>
@@ -2121,20 +2174,195 @@
       <c r="BI3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="BJ3" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2637</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="1">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="1">
+        <v>2636</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" s="1">
+        <v>29</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>24</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>304861</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>12954</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>55</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>3</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>70</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
